--- a/HelloPet 테이블 명세서 v1.0.xlsx
+++ b/HelloPet 테이블 명세서 v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/825310109a443768/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/825310109a443768/바탕 화면/Workspace/HelloPet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7556D8880C6CBF97CEB2808C1EE3CA6D5D1DB68D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84E61F6F-68D6-4586-A4A4-8B0EB3B4BC17}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_7556D8880C6CBF97CEB2808C1EE3CA6D5D1DB68D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECBC916-A64E-4982-9B9F-BCE5BEBD2AB3}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="708" windowWidth="12564" windowHeight="10824" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="308">
   <si>
     <t>작업일자</t>
   </si>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kmarket 쇼핑몰(스프링 기반)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNIQUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,251 +968,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>disNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog / cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 카테고리 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2자리 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate1 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 카테고리 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 예) 10 : 눈 이상, 11 : 행동 이상, 12 :  코 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   10 : 눈 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   11 : 행동 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   12 : 코 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   13 : 음식 섭취 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   14 : 다리 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   15 : 숨소리 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   16 : 위 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   18 : 피부 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   17 : 장 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   20 : 소화기 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   19 : 생식기 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : disease_cate1(증상별 질병 1차 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : disease_cate2(증상별 질병 2차 카테고리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 카테고리 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate2 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2자리 숫자 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 카테고리 데이터셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 -  눈 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   10- 눈꺼풀이 벌겋게 붓는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   11- 눈을 자주 찌푸린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   12- 눈물을 많이 흘린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   13- 눈꼽이 낀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   14- …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   15- … (펫트라슈 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 - 행동 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   10 - 기지개를 자주 켠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   11 - 특정 부위를 계속해서 핥는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   12 - 엉덩이를 바닥에 끌고 다닌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   13 - 한 방향으로 빙빙 돈다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   14 - 재채기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   15 - 경련/발작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   16 - …(펫트라슈 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : disease(증상별 질병)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료가능항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원/약국번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_cate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상별 질병 1차 카테고리 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>disease</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>증상별 질병 찾기 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증상번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog / cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 카테고리 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 카테고리명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2자리 숫자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate1 컬럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 카테고리 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 예) 10 : 눈 이상, 11 : 행동 이상, 12 :  코 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   10 : 눈 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   11 : 행동 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   12 : 코 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   13 : 음식 섭취 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   14 : 다리 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   15 : 숨소리 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   16 : 위 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   18 : 피부 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   17 : 장 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   20 : 소화기 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   19 : 생식기 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : disease_cate1(증상별 질병 1차 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : disease_cate2(증상별 질병 2차 카테고리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 카테고리 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate2 컬럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2자리 숫자 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 카테고리 데이터셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 -  눈 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   10- 눈꺼풀이 벌겋게 붓는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   11- 눈을 자주 찌푸린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   12- 눈물을 많이 흘린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   13- 눈꼽이 낀다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   14- …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   15- … (펫트라슈 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 - 행동 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   10 - 기지개를 자주 켠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   11 - 특정 부위를 계속해서 핥는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   12 - 엉덩이를 바닥에 끌고 다닌다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   13 - 한 방향으로 빙빙 돈다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   14 - 재채기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   15 - 경련/발작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   16 - …(펫트라슈 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블명 : disease(증상별 질병)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진료가능항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원/약국번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
+    <t>증상별질병 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상별 질병 2차 카테고리 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_cate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloPet 프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2151,7 +2167,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2160,13 +2191,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2174,60 +2205,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2265,6 +2242,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2276,21 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2509,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2528,396 +2544,404 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="G3" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="63">
-        <v>44969</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
+      <c r="G4" s="93">
+        <v>44992</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+    </row>
+    <row r="9" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-    </row>
-    <row r="9" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="58" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="61"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="58" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="61"/>
-    </row>
-    <row r="11" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="61"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="61"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="58" t="s">
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+    </row>
+    <row r="14" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="61"/>
-    </row>
-    <row r="14" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="61"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="61"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="61"/>
+      <c r="B16" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="61"/>
+      <c r="B17" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="61"/>
+      <c r="B18" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="61"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="95"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="94"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
@@ -3891,6 +3915,61 @@
     <row r="1001" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -3907,61 +3986,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3992,12 +4016,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4025,16 +4049,16 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>42</v>
@@ -4046,10 +4070,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>60</v>
@@ -4162,128 +4186,128 @@
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G23" s="6"/>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -5287,12 +5311,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5320,16 +5344,16 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>42</v>
@@ -5341,16 +5365,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>42</v>
@@ -5469,74 +5493,74 @@
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G23" s="6"/>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I28" s="30"/>
     </row>
@@ -5546,49 +5570,49 @@
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
@@ -6564,8 +6588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EDAFE5-BCF9-4A3D-A0CD-20BA0DEA347E}">
   <dimension ref="B1:H998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
@@ -6581,12 +6605,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6614,10 +6638,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>41</v>
@@ -6633,16 +6657,16 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>42</v>
@@ -6669,7 +6693,7 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>56</v>
@@ -6686,10 +6710,10 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>60</v>
@@ -6703,10 +6727,10 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>62</v>
@@ -6720,10 +6744,10 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>60</v>
@@ -6791,15 +6815,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
@@ -7834,11 +7858,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7922,13 +7946,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="15" t="s">
@@ -7939,20 +7963,20 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -7971,13 +7995,13 @@
         <v>42</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -7986,7 +8010,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -7996,16 +8020,16 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -8015,47 +8039,47 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="15" t="s">
@@ -8100,13 +8124,13 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="15" t="s">
@@ -8254,15 +8278,15 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
     </row>
     <row r="35" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
@@ -11205,11 +11229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11239,23 +11263,23 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="104"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
@@ -11272,7 +11296,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="17"/>
     </row>
@@ -11281,7 +11305,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>18</v>
@@ -11312,13 +11336,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="15" t="s">
@@ -11329,20 +11353,20 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -11361,13 +11385,13 @@
         <v>42</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -11376,7 +11400,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="15">
         <v>2</v>
@@ -11386,16 +11410,16 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>42</v>
@@ -11405,47 +11429,47 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="15" t="s">
@@ -11456,10 +11480,10 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>38</v>
@@ -11473,13 +11497,13 @@
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="15" t="s">
@@ -11490,16 +11514,16 @@
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>42</v>
@@ -11509,13 +11533,13 @@
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="22">
@@ -11526,13 +11550,13 @@
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22">
@@ -11577,13 +11601,13 @@
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="15" t="s">
@@ -11704,15 +11728,15 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="98"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
@@ -14655,12 +14679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="49"/>
       <c r="G1" s="56"/>
       <c r="H1" s="49"/>
@@ -14691,10 +14715,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>41</v>
@@ -14710,13 +14734,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
@@ -14727,10 +14751,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>53</v>
@@ -14744,13 +14768,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="43" t="s">
@@ -14761,13 +14785,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="43" t="s">
@@ -14778,17 +14802,17 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="17"/>
@@ -14867,15 +14891,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
@@ -15910,12 +15934,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="49"/>
       <c r="G1" s="56"/>
       <c r="H1" s="49"/>
@@ -15946,10 +15970,10 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>133</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>41</v>
@@ -15965,10 +15989,10 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>135</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>59</v>
@@ -15982,10 +16006,10 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>53</v>
@@ -15999,13 +16023,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="43" t="s">
@@ -16016,13 +16040,13 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="43" t="s">
@@ -16033,17 +16057,17 @@
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="17"/>
@@ -16122,15 +16146,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
@@ -17160,12 +17184,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17216,7 +17240,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>32</v>
@@ -17356,15 +17380,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
@@ -18398,12 +18422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -18434,35 +18458,35 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="54" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="54">
         <v>0</v>
@@ -18472,125 +18496,125 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>159</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="F11" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="57">
@@ -18601,30 +18625,30 @@
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="57">
@@ -18635,34 +18659,34 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="29"/>
@@ -18675,19 +18699,19 @@
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="31"/>
     </row>
@@ -18699,7 +18723,7 @@
     </row>
     <row r="27" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="31"/>
     </row>
@@ -19733,7 +19757,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -19764,35 +19788,35 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="54" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F5" s="54">
         <v>0</v>
@@ -19802,16 +19826,16 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="54">
         <v>0</v>
@@ -19821,71 +19845,71 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>159</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="57" t="s">
         <v>163</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>164</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>171</v>
       </c>
       <c r="F10" s="57">
         <v>0</v>
@@ -19895,13 +19919,13 @@
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="57">
@@ -19912,51 +19936,51 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="29"/>
@@ -19967,15 +19991,15 @@
       <c r="A17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
@@ -21281,12 +21305,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21314,13 +21338,13 @@
     </row>
     <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="54" t="s">
@@ -21333,13 +21357,13 @@
     </row>
     <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="15" t="s">
@@ -21350,13 +21374,13 @@
     </row>
     <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="15" t="s">
@@ -21367,13 +21391,13 @@
     </row>
     <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="15" t="s">
@@ -21384,30 +21408,30 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="15" t="s">
@@ -21418,30 +21442,30 @@
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="15" t="s">
@@ -21452,30 +21476,30 @@
     </row>
     <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="15" t="s">
@@ -21486,13 +21510,13 @@
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="15" t="s">
@@ -21503,13 +21527,13 @@
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="15" t="s">
@@ -21520,50 +21544,50 @@
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="37" t="s">
         <v>231</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>232</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -21780,15 +21804,15 @@
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="70"/>
     </row>
     <row r="44" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
